--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Payment Method" sheetId="8" r:id="rId7"/>
     <sheet name="Building" sheetId="9" r:id="rId8"/>
     <sheet name="Transaction" sheetId="7" r:id="rId9"/>
-    <sheet name="Transaction History" sheetId="10" r:id="rId10"/>
+    <sheet name="Transaction ITEM" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
   <si>
     <t>user id</t>
   </si>
@@ -321,6 +321,48 @@
   </si>
   <si>
     <t>LY9</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>n5n7n1n8</t>
+  </si>
+  <si>
+    <t>h6h1h4h2</t>
+  </si>
+  <si>
+    <t>o9o2o5o3</t>
+  </si>
+  <si>
+    <t>a9a6a5a3</t>
+  </si>
+  <si>
+    <t>a9a1a3a0</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>e923f97cfc6829bdf5bde80f6662b765e14c3e5fc7520433a869d6eb652750c6</t>
+  </si>
+  <si>
+    <t>fce44a7d7b602fbcf9c9fd96734ee6a2f86acfd8d405dd146b52049f093e10ff</t>
+  </si>
+  <si>
+    <t>a7a723a7902c677aab6417925b80a5c3b9ea9934394f755b1afb9debd9c0c021</t>
+  </si>
+  <si>
+    <t>1d83ec315945d0b8bea3b21e3df2d1d3d137794ec779b4bce948eba820b34c41</t>
+  </si>
+  <si>
+    <t>d45b338dfdfa2eccd465836cd68cf5d9cdee5d55eb7eb45558a95bc2c0cb1e69</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>command</t>
   </si>
 </sst>
 </file>
@@ -365,10 +407,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -653,7 +698,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -799,18 +844,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -818,62 +865,98 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1234</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>1234</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>1234</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="G5">
         <v>1234</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="G6">
         <v>1234</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +976,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,15 +1087,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1029,13 +1115,22 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1054,10 +1149,24 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product"&amp;J2&amp;".jpg', SINGLE_BLOB) AS image)
+WHERE product_id = "&amp;A2&amp;";"</f>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product1.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 1;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -1074,10 +1183,24 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L17" si="0">"UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product"&amp;J3&amp;".jpg', SINGLE_BLOB) AS image)
+WHERE product_id = "&amp;A3&amp;";"</f>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product2.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 4;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -1092,12 +1215,24 @@
         <v>55</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product3.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 5;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -1112,12 +1247,24 @@
         <v>57</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product4.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 6;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -1132,12 +1279,24 @@
         <v>60</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product5.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 7;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1152,12 +1311,24 @@
         <v>58</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product6.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 8;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1172,12 +1343,24 @@
         <v>63</v>
       </c>
       <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product7.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 9;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -1192,12 +1375,24 @@
         <v>65</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product8.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 10;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -1212,12 +1407,24 @@
         <v>67</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product9.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 11;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -1232,12 +1439,24 @@
         <v>69</v>
       </c>
       <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product10.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 12;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -1252,12 +1471,24 @@
         <v>71</v>
       </c>
       <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product11.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 13;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -1272,12 +1503,24 @@
         <v>73</v>
       </c>
       <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product12.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 14;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -1292,12 +1535,24 @@
         <v>75</v>
       </c>
       <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product13.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 15;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -1312,12 +1567,24 @@
         <v>77</v>
       </c>
       <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product14.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 16;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -1332,12 +1599,24 @@
         <v>79</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product15.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 18;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>80</v>
@@ -1352,7 +1631,19 @@
         <v>81</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>8</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE PRODUCT 
+SET image = (SELECT BulkColumn FROM OPENROWSET(BULK N'E:\document\Ong Cong Kin\Degree\2024 - 04\Progamming Elective II (2)\project\product16.jpg', SINGLE_BLOB) AS image)
+WHERE product_id = 19;</v>
       </c>
     </row>
   </sheetData>
@@ -1413,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
   <si>
     <t>user id</t>
   </si>
@@ -344,25 +344,28 @@
     <t>ori</t>
   </si>
   <si>
-    <t>e923f97cfc6829bdf5bde80f6662b765e14c3e5fc7520433a869d6eb652750c6</t>
-  </si>
-  <si>
-    <t>fce44a7d7b602fbcf9c9fd96734ee6a2f86acfd8d405dd146b52049f093e10ff</t>
-  </si>
-  <si>
-    <t>a7a723a7902c677aab6417925b80a5c3b9ea9934394f755b1afb9debd9c0c021</t>
-  </si>
-  <si>
-    <t>1d83ec315945d0b8bea3b21e3df2d1d3d137794ec779b4bce948eba820b34c41</t>
-  </si>
-  <si>
-    <t>d45b338dfdfa2eccd465836cd68cf5d9cdee5d55eb7eb45558a95bc2c0cb1e69</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
     <t>command</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>5cdaa7c6ef937092cf5c07b3ff99eb6990a706ba5f1ae4cf7b1129438f63283b</t>
+  </si>
+  <si>
+    <t>37fda81a029841c400e28e6a226bb42c274dcf95f11e23a3b71f98c3ed21f6fa</t>
+  </si>
+  <si>
+    <t>397058f7e63d4cd93c1486eb200e4374103d876016e3b36080373bd758fc0f60</t>
+  </si>
+  <si>
+    <t>a5c860156e9ef8536f85dc49265640d8a398a15a7011e3211721d0395c36180c</t>
+  </si>
+  <si>
+    <t>12d31aa2bce4f6668966e434fd777e8e97f6d8f426991ec17e5c3be376551ac3</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,6 +726,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -739,6 +745,9 @@
       </c>
       <c r="E2" s="2">
         <v>37108</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -758,6 +767,9 @@
       <c r="E3" s="2">
         <v>36712</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -776,6 +788,9 @@
       <c r="E4" s="2">
         <v>37104</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -793,6 +808,9 @@
       <c r="E5" s="2">
         <v>37368</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -810,8 +828,18 @@
       <c r="E6" s="2">
         <v>37632</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -820,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -857,7 +885,7 @@
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -867,96 +895,103 @@
       <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="G1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="G2">
         <v>1234</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="str">
+        <f>G2&amp;C2</f>
+        <v>1234n5n7n1n8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>98</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="G3">
         <v>1234</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H6" si="0">G3&amp;C3</f>
+        <v>1234h6h1h4h2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="G4">
         <v>1234</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>1234o9o2o5o3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="G5">
         <v>1234</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>1234a9a6a5a3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>101</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="G6">
         <v>1234</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>1234a9a1a3a0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1159,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
